--- a/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ZUMZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42763</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42399</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42035</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41671</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41307</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40936</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1034100</v>
+      </c>
+      <c r="E8" s="3">
         <v>978600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>927400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>836300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>804200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>811600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>724300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>669400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>555900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>667600</v>
+      </c>
+      <c r="E9" s="3">
         <v>642700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>617500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>561300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>535600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>524500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>462600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>428100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>354200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>366600</v>
+      </c>
+      <c r="E10" s="3">
         <v>335900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>309900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>275000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>268600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>287100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>261800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>241300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>201700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,8 +828,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,9 +858,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,20 +891,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -898,45 +918,51 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E15" s="3">
         <v>24900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>27000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19800</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>948300</v>
+      </c>
+      <c r="E17" s="3">
         <v>917500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>878600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>796500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>758000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>740000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>651500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>495600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E18" s="3">
         <v>61100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>71600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>72800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>68500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,68 +1053,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E21" s="3">
         <v>89600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>75700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>76300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>98600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>93200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1109,69 +1149,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E23" s="3">
         <v>62300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>48400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>71700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>72000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>70300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E24" s="3">
         <v>25800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>26000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E26" s="3">
         <v>36500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>43200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>45900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E27" s="3">
         <v>36500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>43200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>45900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,20 +1347,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>8700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1319,9 +1380,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E33" s="3">
         <v>45200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>43200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E35" s="3">
         <v>45200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>43200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42763</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42399</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42035</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41671</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41307</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40936</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,188 +1649,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E41" s="3">
         <v>30000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E42" s="3">
         <v>135300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>97900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>59000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>137300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>97500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>85600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>158000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E43" s="3">
         <v>17800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E44" s="3">
         <v>129300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>125800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>106900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>93800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>87200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>77600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>14800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E46" s="3">
         <v>327200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>279200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>211400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>198900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>272800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>229800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>203300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>253500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,71 +1875,80 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>414800</v>
+      </c>
+      <c r="E48" s="3">
         <v>120500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>128900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>129700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>137200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>89500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E49" s="3">
         <v>74100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>70600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>68900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>82200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>85100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E52" s="3">
         <v>12400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>914300</v>
+      </c>
+      <c r="E54" s="3">
         <v>534200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>499500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>426700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>414700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>493700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>443400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>409100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>362200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,38 +2141,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E57" s="3">
         <v>35300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2058,81 +2192,90 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E59" s="3">
         <v>57800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E60" s="3">
         <v>93100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>69100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>61400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>57200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2152,47 +2295,53 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E62" s="3">
         <v>40600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>46000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>57200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>448200</v>
+      </c>
+      <c r="E66" s="3">
         <v>133700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>143600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>119600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>134200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>107700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>105700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>89900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>317200</v>
+      </c>
+      <c r="E72" s="3">
         <v>256600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>209400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>182600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>177200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>241700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>216000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>189100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>172700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>466100</v>
+      </c>
+      <c r="E76" s="3">
         <v>400500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>355900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>307100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>297000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>359500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>335700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>303400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>272300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42763</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42399</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42035</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41671</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41307</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40936</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E81" s="3">
         <v>45200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>43200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27300</v>
+        <v>25400</v>
       </c>
       <c r="E83" s="3">
         <v>27300</v>
       </c>
       <c r="F83" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G83" s="3">
         <v>27900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>65300</v>
+        <v>105600</v>
       </c>
       <c r="E89" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F89" s="3">
         <v>65500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>89900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>66900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>68100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>64700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-73900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,8 +3295,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3091,9 +3325,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-91500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28400</v>
+        <v>4300</v>
       </c>
       <c r="E102" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ZUMZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42763</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42399</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42035</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41671</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41307</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40936</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>990700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1034100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>978600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>927400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>836300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>804200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>811600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>724300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>669400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>555900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>640600</v>
+      </c>
+      <c r="E9" s="3">
         <v>667600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>642700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>617500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>561300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>535600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>524500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>462600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>428100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>354200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E10" s="3">
         <v>366600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>335900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>309900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>275000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>268600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>287100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>261800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>241300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>201700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +842,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,9 +875,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,23 +911,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -921,48 +941,54 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E15" s="3">
         <v>24000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>27000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19800</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>893700</v>
+      </c>
+      <c r="E17" s="3">
         <v>948300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>917500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>878600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>796500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>758000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>740000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>651500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>495600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E18" s="3">
         <v>85800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>71600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>72800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>60200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,74 +1087,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E21" s="3">
         <v>116400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>89600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>75700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>76300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>98600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>93200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1152,75 +1192,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E23" s="3">
         <v>91000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>62300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>71700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>72000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E24" s="3">
         <v>24100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E26" s="3">
         <v>66900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>45900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E27" s="3">
         <v>66900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,23 +1408,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>8700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1383,9 +1444,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E33" s="3">
         <v>66900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E35" s="3">
         <v>66900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42763</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42399</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42035</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41671</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41307</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40936</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,206 +1736,225 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E41" s="3">
         <v>44100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>38200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>312900</v>
+      </c>
+      <c r="E42" s="3">
         <v>207100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>135300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>97900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>59000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>137300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>97500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>85600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>158000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E43" s="3">
         <v>16800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E44" s="3">
         <v>135100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>129300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>125800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>106900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>98300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>93800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>87200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>77600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
         <v>9500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>535300</v>
+      </c>
+      <c r="E46" s="3">
         <v>412600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>327200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>279200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>211400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>198900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>272800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>229800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>203300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>253500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,77 +1983,86 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E48" s="3">
         <v>414800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>120500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>128900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>129700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>137200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>89500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E49" s="3">
         <v>71700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>74100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>79600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>70600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>68900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>82200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>85100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E52" s="3">
         <v>15200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>998400</v>
+      </c>
+      <c r="E54" s="3">
         <v>914300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>534200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>499500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>426700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>414700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>493700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>443400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>409100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>362200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,140 +2272,153 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E57" s="3">
         <v>47800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E59" s="3">
         <v>111900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E60" s="3">
         <v>159700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>69100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2298,50 +2441,56 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>250300</v>
+      </c>
+      <c r="E62" s="3">
         <v>288500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>48600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>57200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>445800</v>
+      </c>
+      <c r="E66" s="3">
         <v>448200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>133700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>143600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>119600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>134200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>107700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>89900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E72" s="3">
         <v>317200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>256600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>209400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>182600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>177200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>241700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>216000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>189100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>172700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>552600</v>
+      </c>
+      <c r="E76" s="3">
         <v>466100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>355900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>307100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>297000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>359500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>335700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>303400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>272300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42763</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42399</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42035</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41671</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41307</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40936</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E81" s="3">
         <v>66900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E83" s="3">
         <v>25400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>27300</v>
       </c>
       <c r="F83" s="3">
         <v>27300</v>
       </c>
       <c r="G83" s="3">
+        <v>27300</v>
+      </c>
+      <c r="H83" s="3">
         <v>27900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E89" s="3">
         <v>105600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>65400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>65500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>48500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>89900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>68100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-102900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-64000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>64700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-73900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,8 +3529,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3328,9 +3562,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3670,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-91500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E102" s="3">
         <v>4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ZUMZ</t>
   </si>
@@ -1743,25 +1743,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E41" s="3">
         <v>62700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>38200</v>
       </c>
       <c r="K41" s="3">
         <v>19600</v>
@@ -1779,25 +1779,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E42" s="3">
         <v>312900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>207100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>135300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>97900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>59000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>137300</v>
       </c>
       <c r="K42" s="3">
         <v>97500</v>
@@ -1815,25 +1815,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E43" s="3">
         <v>16600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>12700</v>
       </c>
       <c r="K43" s="3">
         <v>10300</v>
@@ -1851,25 +1851,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E44" s="3">
         <v>134400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>135100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>129300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>125800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>106900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>98300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>93800</v>
       </c>
       <c r="K44" s="3">
         <v>87200</v>
@@ -1887,25 +1887,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>18600</v>
       </c>
       <c r="K45" s="3">
         <v>15200</v>
@@ -1923,25 +1923,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>447600</v>
+      </c>
+      <c r="E46" s="3">
         <v>535300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>412600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>327200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>279200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>211400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>198900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>272800</v>
       </c>
       <c r="K46" s="3">
         <v>229800</v>
@@ -1995,25 +1995,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E48" s="3">
         <v>365500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>414800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>120500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>128900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>129700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>137200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>135600</v>
       </c>
       <c r="K48" s="3">
         <v>127300</v>
@@ -2031,25 +2031,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E49" s="3">
         <v>77500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>71700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>74100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>79600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>70600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>66000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>68900</v>
       </c>
       <c r="K49" s="3">
         <v>82200</v>
@@ -2139,25 +2139,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E52" s="3">
         <v>20100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>16400</v>
       </c>
       <c r="K52" s="3">
         <v>4000</v>
@@ -2211,25 +2211,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E54" s="3">
         <v>998400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>914300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>534200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>499500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>426700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>414700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>493700</v>
       </c>
       <c r="K54" s="3">
         <v>443400</v>
@@ -2279,25 +2279,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E57" s="3">
         <v>69800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>32100</v>
       </c>
       <c r="K57" s="3">
         <v>18300</v>
@@ -2351,25 +2351,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E59" s="3">
         <v>125700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>111900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>50500</v>
       </c>
       <c r="K59" s="3">
         <v>42700</v>
@@ -2387,25 +2387,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E60" s="3">
         <v>195500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>93100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>69100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>81400</v>
       </c>
       <c r="K60" s="3">
         <v>61400</v>
@@ -2459,25 +2459,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E62" s="3">
         <v>250300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>288500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>44300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>57200</v>
       </c>
       <c r="K62" s="3">
         <v>44800</v>
@@ -2603,25 +2603,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>393700</v>
+      </c>
+      <c r="E66" s="3">
         <v>445800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>448200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>143600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>119600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>134200</v>
       </c>
       <c r="K66" s="3">
         <v>107700</v>
@@ -2799,25 +2799,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E72" s="3">
         <v>380000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>317200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>256600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>209400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>182600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>177200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>241700</v>
       </c>
       <c r="K72" s="3">
         <v>216000</v>
@@ -2943,25 +2943,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>468300</v>
+      </c>
+      <c r="E76" s="3">
         <v>552600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>466100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>355900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>307100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>297000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>359500</v>
       </c>
       <c r="K76" s="3">
         <v>335700</v>
@@ -3125,8 +3125,8 @@
       <c r="I83" s="3">
         <v>30400</v>
       </c>
-      <c r="J83" s="3">
-        <v>29200</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>26600</v>
@@ -3501,8 +3501,8 @@
       <c r="I94" s="3">
         <v>64700</v>
       </c>
-      <c r="J94" s="3">
-        <v>-73900</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-49600</v>
@@ -3697,8 +3697,8 @@
       <c r="I100" s="3">
         <v>-91500</v>
       </c>
-      <c r="J100" s="3">
-        <v>-13900</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-15200</v>
@@ -3733,8 +3733,8 @@
       <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
-        <v>-900</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ZUMZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,182 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42763</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42399</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42035</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41671</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41307</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40936</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1183900</v>
+      </c>
+      <c r="E8" s="3">
         <v>990700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1034100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>978600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>927400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>836300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>804200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>811600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>724300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>669400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>555900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>727100</v>
+      </c>
+      <c r="E9" s="3">
         <v>640600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>667600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>642700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>617500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>561300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>535600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>524500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>462600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>428100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>354200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>456700</v>
+      </c>
+      <c r="E10" s="3">
         <v>350000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>366600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>335900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>309900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>275000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>268600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>287100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>261800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>241300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>201700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,8 +855,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,9 +891,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,26 +930,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -944,51 +963,57 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E15" s="3">
         <v>22300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>27000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19800</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,80 +1025,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1026100</v>
+      </c>
+      <c r="E17" s="3">
         <v>893700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>948300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>917500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>878600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>796500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>758000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>740000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>651500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>495600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E18" s="3">
         <v>96900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>85800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>71600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>72800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>60200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1088,80 +1120,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>5500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E21" s="3">
         <v>126500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>116400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>89600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>75700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>76300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>98600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,81 +1234,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E23" s="3">
         <v>102500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>91000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>62300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>48400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>40200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>71700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E24" s="3">
         <v>26200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1303,81 +1351,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E26" s="3">
         <v>76200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>66900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E27" s="3">
         <v>76200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>66900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>37400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1411,9 +1468,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,14 +1483,14 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>8700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1447,9 +1507,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1483,9 +1546,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1519,81 +1585,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E33" s="3">
         <v>76200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>66900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1627,86 +1702,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E35" s="3">
         <v>76200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>66900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42763</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42399</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42035</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41671</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41307</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40936</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1805,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1737,8 +1822,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1764,17 +1850,20 @@
         <v>43200</v>
       </c>
       <c r="K41" s="3">
+        <v>43200</v>
+      </c>
+      <c r="L41" s="3">
         <v>19600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1800,17 +1889,20 @@
         <v>32400</v>
       </c>
       <c r="K42" s="3">
+        <v>32400</v>
+      </c>
+      <c r="L42" s="3">
         <v>97500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>85600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>158000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1836,17 +1928,20 @@
         <v>12800</v>
       </c>
       <c r="K43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L43" s="3">
         <v>10300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1872,17 +1967,20 @@
         <v>98300</v>
       </c>
       <c r="K44" s="3">
+        <v>98300</v>
+      </c>
+      <c r="L44" s="3">
         <v>87200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>77600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1908,17 +2006,20 @@
         <v>12200</v>
       </c>
       <c r="K45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1944,17 +2045,20 @@
         <v>198900</v>
       </c>
       <c r="K46" s="3">
+        <v>198900</v>
+      </c>
+      <c r="L46" s="3">
         <v>229800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>203300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>253500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1986,11 +2090,14 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2016,17 +2123,20 @@
         <v>137200</v>
       </c>
       <c r="K48" s="3">
+        <v>137200</v>
+      </c>
+      <c r="L48" s="3">
         <v>127300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>89500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2052,17 +2162,20 @@
         <v>66000</v>
       </c>
       <c r="K49" s="3">
+        <v>66000</v>
+      </c>
+      <c r="L49" s="3">
         <v>82200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>85100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2096,9 +2209,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2132,9 +2248,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2160,17 +2279,20 @@
         <v>12600</v>
       </c>
       <c r="K52" s="3">
+        <v>12600</v>
+      </c>
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2204,9 +2326,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2232,17 +2357,20 @@
         <v>414700</v>
       </c>
       <c r="K54" s="3">
+        <v>414700</v>
+      </c>
+      <c r="L54" s="3">
         <v>443400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>409100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>362200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2257,8 +2385,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2273,8 +2402,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2300,17 +2430,20 @@
         <v>21900</v>
       </c>
       <c r="K57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="L57" s="3">
         <v>18300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2336,17 +2469,20 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2372,17 +2508,20 @@
         <v>47200</v>
       </c>
       <c r="K59" s="3">
+        <v>47200</v>
+      </c>
+      <c r="L59" s="3">
         <v>42700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>33800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2408,17 +2547,20 @@
         <v>69100</v>
       </c>
       <c r="K60" s="3">
+        <v>69100</v>
+      </c>
+      <c r="L60" s="3">
         <v>61400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2444,17 +2586,20 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2480,17 +2625,20 @@
         <v>48600</v>
       </c>
       <c r="K62" s="3">
+        <v>48600</v>
+      </c>
+      <c r="L62" s="3">
         <v>44800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2524,9 +2672,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2560,9 +2711,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2596,9 +2750,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2624,17 +2781,20 @@
         <v>117700</v>
       </c>
       <c r="K66" s="3">
+        <v>117700</v>
+      </c>
+      <c r="L66" s="3">
         <v>107700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2809,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2684,9 +2845,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2720,9 +2884,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2756,9 +2923,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2792,9 +2962,12 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2820,17 +2993,20 @@
         <v>177200</v>
       </c>
       <c r="K72" s="3">
+        <v>177200</v>
+      </c>
+      <c r="L72" s="3">
         <v>216000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>189100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>172700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2864,9 +3040,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2900,9 +3079,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2936,9 +3118,12 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2964,17 +3149,20 @@
         <v>297000</v>
       </c>
       <c r="K76" s="3">
+        <v>297000</v>
+      </c>
+      <c r="L76" s="3">
         <v>335700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>303400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>272300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,86 +3196,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42763</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42399</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42035</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41671</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41307</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40936</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E81" s="3">
         <v>76200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>66900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3102,44 +3299,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E83" s="3">
         <v>24100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>27300</v>
       </c>
       <c r="G83" s="3">
         <v>27300</v>
       </c>
       <c r="H83" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I83" s="3">
         <v>27900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30400</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3173,9 +3374,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3209,9 +3413,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3245,9 +3452,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3281,9 +3491,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,45 +3530,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E89" s="3">
         <v>138400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>105600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>65400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>65500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>48500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>89900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>68100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,44 +3589,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-41100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3441,9 +3664,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3477,45 +3703,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-110500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-102900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-64000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>64700</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3530,8 +3762,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3565,9 +3798,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3601,9 +3837,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,9 +3876,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3673,115 +3915,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-191400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-91500</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E102" s="3">
         <v>21700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ZUMZ</t>
   </si>
@@ -3306,25 +3306,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22900</v>
+        <v>24100</v>
       </c>
       <c r="E83" s="3">
-        <v>24100</v>
+        <v>25400</v>
       </c>
       <c r="F83" s="3">
-        <v>25400</v>
+        <v>27300</v>
       </c>
       <c r="G83" s="3">
         <v>27300</v>
       </c>
       <c r="H83" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="I83" s="3">
-        <v>27900</v>
-      </c>
-      <c r="J83" s="3">
         <v>30400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3540,25 +3540,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>135000</v>
+        <v>138400</v>
       </c>
       <c r="E89" s="3">
-        <v>138400</v>
+        <v>105600</v>
       </c>
       <c r="F89" s="3">
-        <v>105600</v>
+        <v>65400</v>
       </c>
       <c r="G89" s="3">
-        <v>65400</v>
+        <v>65500</v>
       </c>
       <c r="H89" s="3">
-        <v>65500</v>
+        <v>48500</v>
       </c>
       <c r="I89" s="3">
-        <v>48500</v>
+        <v>49300</v>
       </c>
       <c r="J89" s="3">
-        <v>49300</v>
+        <v>89900</v>
       </c>
       <c r="K89" s="3">
         <v>89900</v>
@@ -3596,25 +3596,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15700</v>
+        <v>-9100</v>
       </c>
       <c r="E91" s="3">
-        <v>-9100</v>
+        <v>-18800</v>
       </c>
       <c r="F91" s="3">
-        <v>-18800</v>
+        <v>-21000</v>
       </c>
       <c r="G91" s="3">
-        <v>-21000</v>
+        <v>-24100</v>
       </c>
       <c r="H91" s="3">
-        <v>-24100</v>
+        <v>-20400</v>
       </c>
       <c r="I91" s="3">
-        <v>-20400</v>
+        <v>-34800</v>
       </c>
       <c r="J91" s="3">
-        <v>-34800</v>
+        <v>-35800</v>
       </c>
       <c r="K91" s="3">
         <v>-35800</v>
@@ -3713,25 +3713,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>101600</v>
+        <v>-110500</v>
       </c>
       <c r="E94" s="3">
-        <v>-110500</v>
+        <v>-102900</v>
       </c>
       <c r="F94" s="3">
-        <v>-102900</v>
+        <v>-36400</v>
       </c>
       <c r="G94" s="3">
-        <v>-36400</v>
+        <v>-64000</v>
       </c>
       <c r="H94" s="3">
-        <v>-64000</v>
+        <v>-51500</v>
       </c>
       <c r="I94" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="J94" s="3">
         <v>64700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3925,25 +3925,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-191400</v>
+        <v>-9700</v>
       </c>
       <c r="E100" s="3">
-        <v>-9700</v>
+        <v>2000</v>
       </c>
       <c r="F100" s="3">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="H100" s="3">
-        <v>1300</v>
+        <v>-20100</v>
       </c>
       <c r="I100" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="J100" s="3">
         <v>-91500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3964,25 +3964,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1800</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>-400</v>
       </c>
       <c r="F101" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="G101" s="3">
-        <v>-700</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
-      </c>
-      <c r="J101" s="3">
         <v>-300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4003,25 +4003,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43400</v>
+        <v>21700</v>
       </c>
       <c r="E102" s="3">
-        <v>21700</v>
+        <v>4300</v>
       </c>
       <c r="F102" s="3">
-        <v>4300</v>
+        <v>28500</v>
       </c>
       <c r="G102" s="3">
-        <v>28500</v>
+        <v>3800</v>
       </c>
       <c r="H102" s="3">
-        <v>3800</v>
+        <v>-22900</v>
       </c>
       <c r="I102" s="3">
-        <v>-22900</v>
+        <v>22300</v>
       </c>
       <c r="J102" s="3">
-        <v>22300</v>
+        <v>1200</v>
       </c>
       <c r="K102" s="3">
         <v>1200</v>

--- a/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZUMZ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ZUMZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,194 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42763</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42399</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42035</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41671</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41307</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40936</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>958400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1183900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>990700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1034100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>978600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>927400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>836300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>804200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>811600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>724300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>669400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>555900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>633700</v>
+      </c>
+      <c r="E9" s="3">
         <v>727100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>640600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>667600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>642700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>617500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>561300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>535600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>524500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>462600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>428100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>354200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>324700</v>
+      </c>
+      <c r="E10" s="3">
         <v>456700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>350000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>366600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>335900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>309900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>275000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>268600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>287100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>261800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>241300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>201700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +868,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,9 +907,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,29 +949,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -966,54 +985,60 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E15" s="3">
         <v>20300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>24000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>25300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>25900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19800</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>927300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1026100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>893700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>948300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>917500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>878600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>796500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>758000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>740000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>651500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>495600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E18" s="3">
         <v>157800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>85800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>61100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>60200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1121,86 +1153,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E21" s="3">
         <v>183400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>126500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>116400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>75700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>76300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>98600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>93200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,87 +1276,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E23" s="3">
         <v>160500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>102500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>91000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>62300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>40200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>71700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>70300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E24" s="3">
         <v>41200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1354,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E26" s="3">
         <v>119300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>66900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>28800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E27" s="3">
         <v>119300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>76200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>66900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>37400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1471,9 +1528,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,14 +1546,14 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>8700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>500</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1510,9 +1570,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1549,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1588,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E33" s="3">
         <v>119300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>76200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>66900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>45200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1705,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E35" s="3">
         <v>119300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>76200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>66900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>45200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42763</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42399</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42035</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41671</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41307</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40936</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1806,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1823,242 +1908,261 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E41" s="3">
         <v>117200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>43200</v>
       </c>
       <c r="K41" s="3">
         <v>43200</v>
       </c>
       <c r="L41" s="3">
+        <v>43200</v>
+      </c>
+      <c r="M41" s="3">
         <v>19600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>120800</v>
+      </c>
+      <c r="E42" s="3">
         <v>177300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>312900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>207100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>135300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>97900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>59000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>32400</v>
       </c>
       <c r="K42" s="3">
         <v>32400</v>
       </c>
       <c r="L42" s="3">
+        <v>32400</v>
+      </c>
+      <c r="M42" s="3">
         <v>97500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>85600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>158000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E43" s="3">
         <v>14400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>12800</v>
       </c>
       <c r="K43" s="3">
         <v>12800</v>
       </c>
       <c r="L43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M43" s="3">
         <v>10300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E44" s="3">
         <v>128700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>134400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>135100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>129300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>125800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>106900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>98300</v>
       </c>
       <c r="K44" s="3">
         <v>98300</v>
       </c>
       <c r="L44" s="3">
+        <v>98300</v>
+      </c>
+      <c r="M44" s="3">
         <v>87200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>77600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>12200</v>
       </c>
       <c r="K45" s="3">
         <v>12200</v>
       </c>
       <c r="L45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E46" s="3">
         <v>447600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>535300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>412600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>327200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>279200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>211400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>198900</v>
       </c>
       <c r="K46" s="3">
         <v>198900</v>
       </c>
       <c r="L46" s="3">
+        <v>198900</v>
+      </c>
+      <c r="M46" s="3">
         <v>229800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>203300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>253500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2093,89 +2197,98 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>2400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E48" s="3">
         <v>321600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>365500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>414800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>120500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>128900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>129700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>137200</v>
       </c>
       <c r="K48" s="3">
         <v>137200</v>
       </c>
       <c r="L48" s="3">
+        <v>137200</v>
+      </c>
+      <c r="M48" s="3">
         <v>127300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>89500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E49" s="3">
         <v>72300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>77500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>71700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>79600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>70600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>66000</v>
       </c>
       <c r="K49" s="3">
         <v>66000</v>
       </c>
       <c r="L49" s="3">
+        <v>66000</v>
+      </c>
+      <c r="M49" s="3">
         <v>82200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>85100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2251,48 +2367,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E52" s="3">
         <v>20500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>12600</v>
       </c>
       <c r="K52" s="3">
         <v>12600</v>
       </c>
       <c r="L52" s="3">
+        <v>12600</v>
+      </c>
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2329,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>747900</v>
+      </c>
+      <c r="E54" s="3">
         <v>862000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>998400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>914300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>534200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>499500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>426700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>414700</v>
       </c>
       <c r="K54" s="3">
         <v>414700</v>
       </c>
       <c r="L54" s="3">
+        <v>414700</v>
+      </c>
+      <c r="M54" s="3">
         <v>443400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>409100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>362200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2386,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2403,47 +2532,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E57" s="3">
         <v>55600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>21900</v>
       </c>
       <c r="K57" s="3">
         <v>21900</v>
       </c>
       <c r="L57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="M57" s="3">
         <v>18300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2472,95 +2605,104 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E59" s="3">
         <v>128800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>125700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>111900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>61400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>47200</v>
       </c>
       <c r="K59" s="3">
         <v>47200</v>
       </c>
       <c r="L59" s="3">
+        <v>47200</v>
+      </c>
+      <c r="M59" s="3">
         <v>42700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E60" s="3">
         <v>184400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>195500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>159700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>93100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>69100</v>
       </c>
       <c r="K60" s="3">
         <v>69100</v>
       </c>
       <c r="L60" s="3">
+        <v>69100</v>
+      </c>
+      <c r="M60" s="3">
         <v>61400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>57200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2589,56 +2731,62 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>194800</v>
+      </c>
+      <c r="E62" s="3">
         <v>209300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>250300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>288500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>48600</v>
       </c>
       <c r="K62" s="3">
         <v>48600</v>
       </c>
       <c r="L62" s="3">
+        <v>48600</v>
+      </c>
+      <c r="M62" s="3">
         <v>44800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2675,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2714,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2753,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>340600</v>
+      </c>
+      <c r="E66" s="3">
         <v>393700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>445800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>448200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>133700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>143600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>119600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>117700</v>
       </c>
       <c r="K66" s="3">
         <v>117700</v>
       </c>
       <c r="L66" s="3">
+        <v>117700</v>
+      </c>
+      <c r="M66" s="3">
         <v>107700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>105700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2810,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2848,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2887,9 +3051,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2926,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2965,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E72" s="3">
         <v>301000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>380000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>317200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>256600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>209400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>182600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>177200</v>
       </c>
       <c r="K72" s="3">
         <v>177200</v>
       </c>
       <c r="L72" s="3">
+        <v>177200</v>
+      </c>
+      <c r="M72" s="3">
         <v>216000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>189100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>172700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3043,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3082,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3121,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>407300</v>
+      </c>
+      <c r="E76" s="3">
         <v>468300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>552600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>466100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>355900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>307100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>297000</v>
       </c>
       <c r="K76" s="3">
         <v>297000</v>
       </c>
       <c r="L76" s="3">
+        <v>297000</v>
+      </c>
+      <c r="M76" s="3">
         <v>335700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>303400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>272300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3199,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42763</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42399</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42035</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41671</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41307</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40936</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E81" s="3">
         <v>119300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>76200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>66900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>45200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3300,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F83" s="3">
         <v>24100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>25400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>27300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>27300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>27900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>30400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>26600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3377,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3416,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3455,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3494,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3533,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F89" s="3">
         <v>138400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>105600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>65400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>65500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>48500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>49300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>89900</v>
       </c>
       <c r="K89" s="3">
         <v>89900</v>
       </c>
       <c r="L89" s="3">
+        <v>89900</v>
+      </c>
+      <c r="M89" s="3">
         <v>66900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>68100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3590,47 +3809,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-18800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-24100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-34800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-35800</v>
       </c>
       <c r="K91" s="3">
         <v>-35800</v>
       </c>
       <c r="L91" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="M91" s="3">
         <v>-36000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3667,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3706,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>101600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-110500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-102900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-36400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-64000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-51500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>64700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-49600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3763,8 +3995,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3801,9 +4034,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3840,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3879,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3918,124 +4160,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-191400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-9700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-20100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-91500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-15200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F101" s="3">
         <v>3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F102" s="3">
         <v>21700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>28500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-22900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>22300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1200</v>
       </c>
       <c r="K102" s="3">
         <v>1200</v>
       </c>
       <c r="L102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
